--- a/Certificates.xlsx
+++ b/Certificates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prans\Documents\Gifted World\Financial Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1BB92-A9EA-4173-A745-D27456FC398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63756091-054D-44F5-AB10-032421E313E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86413448-8BF6-4686-8D8E-216295A83A3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{86413448-8BF6-4686-8D8E-216295A83A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificates" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>Email</t>
   </si>
@@ -217,10 +217,13 @@
     <t>Joe tomy</t>
   </si>
   <si>
-    <t>Tanay Abraham</t>
-  </si>
-  <si>
     <t>Reports4manu@gmail.com</t>
+  </si>
+  <si>
+    <t>Tanay Thomas Abraham</t>
+  </si>
+  <si>
+    <t>Ritwik Chandra Minisharatheesh</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1098,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D5FD2-5E17-43BF-B19D-F358FC75516E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1164,9 +1167,11 @@
         <v>8</v>
       </c>
       <c r="H2" s="6">
+        <f>SUM(D2:G2)</f>
         <v>31</v>
       </c>
       <c r="I2" s="7">
+        <f>H2/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1193,9 +1198,11 @@
         <v>8</v>
       </c>
       <c r="H3" s="6">
+        <f>SUM(D3:G3)</f>
         <v>31</v>
       </c>
       <c r="I3" s="7">
+        <f>H3/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1222,9 +1229,11 @@
         <v>8</v>
       </c>
       <c r="H4" s="6">
+        <f>SUM(D4:G4)</f>
         <v>31</v>
       </c>
       <c r="I4" s="7">
+        <f>H4/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1251,9 +1260,11 @@
         <v>8</v>
       </c>
       <c r="H5" s="6">
+        <f>SUM(D5:G5)</f>
         <v>31</v>
       </c>
       <c r="I5" s="7">
+        <f>H5/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1280,9 +1291,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="6">
+        <f>SUM(D6:G6)</f>
         <v>31</v>
       </c>
       <c r="I6" s="7">
+        <f>H6/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1309,9 +1322,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="6">
+        <f>SUM(D7:G7)</f>
         <v>31</v>
       </c>
       <c r="I7" s="7">
+        <f>H7/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1338,9 +1353,11 @@
         <v>8</v>
       </c>
       <c r="H8" s="6">
+        <f>SUM(D8:G8)</f>
         <v>31</v>
       </c>
       <c r="I8" s="7">
+        <f>H8/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1367,9 +1384,11 @@
         <v>8</v>
       </c>
       <c r="H9" s="6">
+        <f>SUM(D9:G9)</f>
         <v>31</v>
       </c>
       <c r="I9" s="7">
+        <f>H9/31</f>
         <v>1</v>
       </c>
     </row>
@@ -1396,10 +1415,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="6">
+        <f>SUM(D10:G10)</f>
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>0.9677</v>
+        <f>H10/31</f>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,10 +1446,12 @@
         <v>8</v>
       </c>
       <c r="H11" s="6">
+        <f>SUM(D11:G11)</f>
         <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>0.9677</v>
+        <f>H11/31</f>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,10 +1477,12 @@
         <v>8</v>
       </c>
       <c r="H12" s="6">
+        <f>SUM(D12:G12)</f>
         <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>0.9677</v>
+        <f>H12/31</f>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,10 +1508,12 @@
         <v>8</v>
       </c>
       <c r="H13" s="6">
+        <f>SUM(D13:G13)</f>
         <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>0.9677</v>
+        <f>H13/31</f>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1512,24 +1539,26 @@
         <v>7</v>
       </c>
       <c r="H14" s="6">
+        <f>SUM(D14:G14)</f>
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>0.9355</v>
+        <f>H14/31</f>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6">
         <v>4</v>
       </c>
       <c r="D15" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6">
         <v>7</v>
@@ -1538,245 +1567,263 @@
         <v>5</v>
       </c>
       <c r="G15" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" s="6">
-        <v>26</v>
+        <f>SUM(D15:G15)</f>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>0.8387</v>
+        <f>H15/31</f>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
       </c>
       <c r="D16" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H16" s="6">
-        <v>24</v>
+        <f>SUM(D16:G16)</f>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>0.7742</v>
+        <f>H16/31</f>
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F17" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6">
         <v>8</v>
       </c>
       <c r="H17" s="6">
-        <v>23</v>
+        <f>SUM(D17:G17)</f>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>0.7419</v>
+        <f>H17/31</f>
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6">
         <v>4</v>
       </c>
       <c r="D18" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" s="6">
-        <v>17</v>
+        <f>SUM(D18:G18)</f>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>0.5484</v>
+        <f>H18/31</f>
+        <v>0.77419354838709675</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
       <c r="D19" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H19" s="6">
-        <v>16</v>
+        <f>SUM(D19:G19)</f>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>0.5161</v>
+        <f>H19/31</f>
+        <v>0.74193548387096775</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
       </c>
       <c r="D20" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
         <v>3</v>
       </c>
-      <c r="G20" s="6">
-        <v>2</v>
-      </c>
       <c r="H20" s="6">
-        <v>15</v>
+        <f>SUM(D20:G20)</f>
+        <v>17</v>
       </c>
       <c r="I20" s="7">
-        <v>0.4839</v>
+        <f>H20/31</f>
+        <v>0.54838709677419351</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6">
         <v>4</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>8</v>
+        <f>SUM(D21:G21)</f>
+        <v>16</v>
       </c>
       <c r="I21" s="7">
-        <v>0.2581</v>
+        <f>H21/31</f>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="6">
-        <v>11</v>
-      </c>
-      <c r="E22" s="6">
-        <v>7</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
       <c r="G22" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H22" s="6">
-        <v>26</v>
+        <f>SUM(D22:G22)</f>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>0.8387</v>
+        <f>H22/31</f>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUM(D23:G23)</f>
         <v>8</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6">
-        <v>7</v>
-      </c>
-      <c r="H23" s="6">
-        <v>22</v>
-      </c>
       <c r="I23" s="7">
-        <v>0.7097</v>
+        <f>H23/31</f>
+        <v>0.25806451612903225</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1802,10 +1849,12 @@
         <v>4</v>
       </c>
       <c r="H24" s="6">
+        <f>SUM(D24:G24)</f>
         <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>0.2581</v>
+        <f>H24/31</f>
+        <v>0.25806451612903225</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,10 +1880,12 @@
         <v>8</v>
       </c>
       <c r="H25" s="6">
+        <f>SUM(D25:G25)</f>
         <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>0.6129</v>
+        <f>H25/31</f>
+        <v>0.61290322580645162</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,15 +1911,17 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
+        <f>SUM(D26:G26)</f>
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>0.4516</v>
+        <f>H26/31</f>
+        <v>0.45161290322580644</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>38</v>
@@ -1889,10 +1942,12 @@
         <v>0</v>
       </c>
       <c r="H27" s="6">
+        <f>SUM(D27:G27)</f>
         <v>8</v>
       </c>
       <c r="I27" s="7">
-        <v>0.2581</v>
+        <f>H27/31</f>
+        <v>0.25806451612903225</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1918,10 +1973,12 @@
         <v>0</v>
       </c>
       <c r="H28" s="6">
+        <f>SUM(D28:G28)</f>
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>0.129</v>
+        <f>H28/31</f>
+        <v>0.12903225806451613</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,10 +2004,12 @@
         <v>0</v>
       </c>
       <c r="H29" s="6">
+        <f>SUM(D29:G29)</f>
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>3.2300000000000002E-2</v>
+        <f>H29/31</f>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,11 +2034,12 @@
       <c r="G30" s="5">
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
+        <f>SUM(D30:G30)</f>
         <v>1</v>
       </c>
-      <c r="I30" s="8">
-        <f t="shared" ref="I30:I31" si="0">H30/31</f>
+      <c r="I30" s="7">
+        <f>H30/31</f>
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
@@ -2005,32 +2065,41 @@
       <c r="G31" s="5">
         <v>0</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="0"/>
+      <c r="H31" s="6">
+        <f>SUM(D31:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <f>H31/31</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I31" xr:uid="{0C0D5FD2-5E17-43BF-B19D-F358FC75516E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I24">
+      <sortCondition descending="1" ref="I1:I31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H25:H31 H2:H24" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5DD97A-BF7D-46E7-BE03-E3C738A199A2}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,22 +2216,39 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2171,13 +2257,13 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2210,28 +2296,29 @@
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED0A26E-3546-49C5-9AE7-235B364878FD}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2262,30 +2349,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
